--- a/Design Input File - water.xlsx
+++ b/Design Input File - water.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923FA9B-678E-431F-A386-5183128C18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D155A0-A0CF-4EB6-A53C-C00DEB479B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="204">
   <si>
     <t>Length_f</t>
   </si>
@@ -1475,9 +1475,6 @@
     <t>Airfoil_w</t>
   </si>
   <si>
-    <t>MH32</t>
-  </si>
-  <si>
     <t>Airfoil_h1</t>
   </si>
   <si>
@@ -1490,9 +1487,6 @@
     <t>Airfoil_v2</t>
   </si>
   <si>
-    <t>NACA 0008</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -1904,9 +1898,6 @@
     <t>Airfoil_Data</t>
   </si>
   <si>
-    <t>Tempest Model</t>
-  </si>
-  <si>
     <t>HT08</t>
   </si>
   <si>
@@ -1926,6 +1917,9 @@
   </si>
   <si>
     <t>Sam's Model4</t>
+  </si>
+  <si>
+    <t>Sam's Model5</t>
   </si>
 </sst>
 </file>
@@ -2304,13 +2298,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>594629</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>8703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>596429</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>20303</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2802,983 +2796,983 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="7" t="str" cm="1">
         <f t="array" ref="B2:B52">TRANSPOSE(Input!A1:AY1)</f>
         <v>Config</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="7" t="str">
         <v>altitude_o</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="7" t="str">
         <v>V_o</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="7" t="str">
         <v>Length_f</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" s="7" t="str">
         <v>Dia_f</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" s="7" t="str">
         <v>Fine_f</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="7" t="str">
         <v>Amax_f</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="7" t="str">
         <v>Abase_f</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="str">
         <v>Swet_f</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="7" t="str">
         <v>Q_f</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" s="7" t="str">
         <v>Sref_w</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="str">
         <v>Swet_w</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B14" s="7" t="str">
         <v>AR_w</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" s="7" t="str">
         <v>Taper_w</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="7" t="str">
         <v>Sweep_w</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" s="7" t="str">
         <v>QuarterSweep_w</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="7" t="str">
         <v>Q_w</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" s="7" t="str">
         <v>Sref-h1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" s="7" t="str">
         <v>Swet_h1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" s="7" t="str">
         <v>AR_h1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="7" t="str">
         <v>Taper_h1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B23" s="7" t="str">
         <v>Sweep_h1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" s="7" t="str">
         <v>MAC_h1</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B25" s="7" t="str">
         <v>Q_h1</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B26" s="7" t="str">
         <v>Sref-h2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B27" s="7" t="str">
         <v>Swet_h2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="7" t="str">
         <v>AR_h2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B29" s="7" t="str">
         <v>Taper_h2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B30" s="7" t="str">
         <v>Sweep_h2</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B31" s="7" t="str">
         <v>MAC_h2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="7" t="str">
         <v>Q_h2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" s="7" t="str">
         <v>Sref-v1</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="7" t="str">
         <v>Swet_v1</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="7" t="str">
         <v>AR_v1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B36" s="7" t="str">
         <v>Taper_v1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B37" s="7" t="str">
         <v>Sweep_v1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" s="7" t="str">
         <v>MAC_v1</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" s="7" t="str">
         <v>Q_v1</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B40" s="7" t="str">
         <v>Sref-v2</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B41" s="7" t="str">
         <v>Swet_v2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B42" s="7" t="str">
         <v>AR_v2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B43" s="7" t="str">
         <v>Taper_v2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B44" s="7" t="str">
         <v>Sweep_v2</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" s="7" t="str">
         <v>MAC_v2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B46" s="7" t="str">
         <v>Q_v2</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B47" s="7" t="str">
         <v>Bottle_Vol</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B48" s="7" t="str">
         <v>Water_Vol</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B49" s="7" t="str">
         <v>Launch_El</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B50" s="7" t="str">
         <v>Launch_Az</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B51" s="7" t="str">
         <v>Wind_Az</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B52" s="7" t="str">
         <v>V_wind</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="D68" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3806,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY7"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="114" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3868,7 +3862,7 @@
         <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q1" t="s">
         <v>53</v>
@@ -3958,22 +3952,22 @@
         <v>35</v>
       </c>
       <c r="AT1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX1" t="s">
         <v>113</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AY1" t="s">
         <v>114</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
@@ -3981,69 +3975,66 @@
         <v>198</v>
       </c>
       <c r="B2">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C2">
-        <f>(17+25)/2</f>
+        <f t="shared" ref="C2:C7" si="0">(17+25)/2</f>
         <v>21</v>
       </c>
       <c r="D2">
-        <v>1.56</v>
+        <v>0.99</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="F2">
-        <f>D2/E2</f>
-        <v>9.75</v>
+        <f t="shared" ref="F2:F6" si="1">D2/E2</f>
+        <v>8.3898305084745761</v>
       </c>
       <c r="G2">
-        <f>(PI()/4)*(E2*E2)</f>
-        <v>2.0106192982974676E-2</v>
+        <v>1.3924000000000001E-2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.3924000000000001E-2</v>
       </c>
       <c r="I2">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <f>0.63</f>
-        <v>0.63</v>
+        <v>0.126</v>
       </c>
       <c r="L2">
-        <f>(K2-0.04)*2</f>
-        <v>1.18</v>
+        <f>K2*2</f>
+        <v>0.252</v>
       </c>
       <c r="M2">
-        <v>16.5</v>
+        <f>0.88/0.18</f>
+        <v>4.8888888888888893</v>
       </c>
       <c r="N2">
-        <f>0.054/0.24</f>
-        <v>0.22500000000000001</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="R2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S2">
-        <f>R2*2</f>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T2">
-        <f>0.75*0.75/R2</f>
-        <v>5.625</v>
+        <f>0.108/0.09</f>
+        <v>1.2</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -4052,76 +4043,78 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <f>(0.054+0.24)/2</f>
-        <v>0.14699999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="X2">
         <v>1.1000000000000001</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f>0.108/0.09</f>
+        <v>1.2</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF2">
-        <v>5.1999999999999998E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AG2">
-        <f>AF2*2</f>
-        <v>0.104</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AH2">
-        <f>(0.4*0.4)/AF2</f>
-        <v>3.0769230769230775</v>
+        <f>240/150</f>
+        <v>1.6</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <f>110/200</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.13</v>
+        <v>0.155</v>
       </c>
       <c r="AL2">
         <v>1.1000000000000001</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <f>240/150</f>
+        <v>1.6</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <f>110/200</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -4130,13 +4123,13 @@
         <v>1400</v>
       </c>
       <c r="AV2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -4144,13 +4137,13 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>1656</v>
       </c>
       <c r="C3">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D3">
@@ -4160,7 +4153,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F3">
-        <f>D3/E3</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G3">
@@ -4292,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="AV3">
         <v>60</v>
@@ -4304,18 +4297,18 @@
         <v>180</v>
       </c>
       <c r="AY3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>1656</v>
       </c>
       <c r="C4">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D4">
@@ -4325,7 +4318,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F4">
-        <f>D4/E4</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G4">
@@ -4457,7 +4450,7 @@
         <v>2</v>
       </c>
       <c r="AU4">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
         <v>60</v>
@@ -4469,18 +4462,18 @@
         <v>180</v>
       </c>
       <c r="AY4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5">
         <v>1656</v>
       </c>
       <c r="C5">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D5">
@@ -4490,7 +4483,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F5">
-        <f>D5/E5</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G5">
@@ -4622,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="AU5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AV5">
         <v>60</v>
@@ -4634,18 +4627,18 @@
         <v>180</v>
       </c>
       <c r="AY5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>1656</v>
       </c>
       <c r="C6">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D6">
@@ -4655,7 +4648,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F6">
-        <f>D6/E6</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G6">
@@ -4787,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="AU6">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AV6">
         <v>60</v>
@@ -4799,18 +4792,18 @@
         <v>180</v>
       </c>
       <c r="AY6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7">
         <v>1656</v>
       </c>
       <c r="C7">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D7">
@@ -4820,7 +4813,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F7">
-        <f>D7/E7</f>
+        <f t="shared" ref="F7" si="2">D7/E7</f>
         <v>8.3898305084745761</v>
       </c>
       <c r="G7">
@@ -4952,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="AU7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AV7">
         <v>60</v>
@@ -4964,7 +4957,7 @@
         <v>180</v>
       </c>
       <c r="AY7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4980,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
   <dimension ref="A1:BB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="AH1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5009,121 +5002,121 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>80</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>93</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>99</v>
-      </c>
       <c r="AQ1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AR1" t="s">
         <v>9</v>
@@ -5132,7 +5125,7 @@
         <v>10</v>
       </c>
       <c r="AT1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU1" t="s">
         <v>19</v>
@@ -5141,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="AW1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AX1" t="s">
         <v>14</v>
@@ -5150,7 +5143,7 @@
         <v>15</v>
       </c>
       <c r="AZ1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BA1" t="s">
         <v>33</v>
@@ -5160,178 +5153,175 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="str">
-        <f>Input!A2</f>
-        <v>Tempest Model</v>
+      <c r="A2" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>8.6999999999999994E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>0.30199999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.41660000000000003</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="F2">
-        <v>-0.27339999999999998</v>
+        <v>-0.44</v>
       </c>
       <c r="G2">
-        <v>-0.125</v>
+        <v>-0.32</v>
       </c>
       <c r="H2">
-        <v>3.2000000000000002E-3</v>
+        <v>-0.22</v>
       </c>
       <c r="I2">
-        <v>0.21360000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="J2">
-        <v>0.33119999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.42630000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="L2">
-        <v>0.52410000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="M2">
-        <v>0.62360000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="N2">
-        <v>0.72170000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="O2">
-        <v>0.8165</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2">
-        <v>0.90590000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="Q2">
-        <v>0.9889</v>
+        <v>0.72</v>
       </c>
       <c r="R2">
-        <v>1.0582</v>
+        <v>0.75</v>
       </c>
       <c r="S2">
-        <v>1.1042000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="T2">
-        <v>1.1555</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.1303000000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.097</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2" si="0">MAX(E2:V2)</f>
-        <v>1.1555</v>
+        <v>0.76</v>
       </c>
       <c r="X2">
-        <v>4.0489999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Y2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z2">
+        <v>0.01</v>
+      </c>
+      <c r="AA2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AC2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AG2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AH2">
         <v>0.02</v>
       </c>
-      <c r="Z2">
-        <v>1.439E-2</v>
-      </c>
-      <c r="AA2">
-        <v>1.0540000000000001E-2</v>
-      </c>
-      <c r="AB2">
-        <v>9.7599999999999996E-3</v>
-      </c>
-      <c r="AC2">
-        <v>9.3299999999999998E-3</v>
-      </c>
-      <c r="AD2">
-        <v>9.0600000000000003E-3</v>
-      </c>
-      <c r="AE2">
-        <v>8.9800000000000001E-3</v>
-      </c>
-      <c r="AF2">
-        <v>9.2800000000000001E-3</v>
-      </c>
-      <c r="AG2">
-        <v>1.01E-2</v>
-      </c>
-      <c r="AH2">
-        <v>1.133E-2</v>
-      </c>
       <c r="AI2">
-        <v>1.3140000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AJ2">
-        <v>1.5730000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AK2">
-        <v>2.0119999999999999E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AL2">
-        <v>2.7230000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AM2">
-        <v>3.6409999999999998E-2</v>
+        <v>0.13</v>
       </c>
       <c r="AN2">
-        <v>5.1929999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="AO2">
-        <v>6.2429999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="AP2">
-        <f t="shared" ref="AP2" si="1">MIN(X2:AO2)</f>
-        <v>8.9800000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ2" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="AR2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AS2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW2" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="AX2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AY2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -5454,7 +5444,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR3">
         <v>0.05</v>
@@ -5463,7 +5453,7 @@
         <v>0.5</v>
       </c>
       <c r="AT3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AU3">
         <v>0.05</v>
@@ -5472,7 +5462,7 @@
         <v>0.5</v>
       </c>
       <c r="AW3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AX3">
         <v>0.05</v>
@@ -5481,7 +5471,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA3">
         <v>0.05</v>
@@ -5492,10 +5482,10 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4">
         <v>0.05</v>
@@ -5618,7 +5608,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR4">
         <v>0.05</v>
@@ -5627,7 +5617,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AU4">
         <v>0.05</v>
@@ -5636,7 +5626,7 @@
         <v>0.5</v>
       </c>
       <c r="AW4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AX4">
         <v>0.05</v>
@@ -5645,7 +5635,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA4">
         <v>0.05</v>
@@ -5656,10 +5646,10 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C5">
         <v>0.05</v>
@@ -5782,7 +5772,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR5">
         <v>0.05</v>
@@ -5791,7 +5781,7 @@
         <v>0.5</v>
       </c>
       <c r="AT5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AU5">
         <v>0.05</v>
@@ -5800,7 +5790,7 @@
         <v>0.5</v>
       </c>
       <c r="AW5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AX5">
         <v>0.05</v>
@@ -5809,7 +5799,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA5">
         <v>0.05</v>
@@ -5820,10 +5810,10 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6">
         <v>0.05</v>
@@ -5946,7 +5936,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR6">
         <v>0.05</v>
@@ -5955,7 +5945,7 @@
         <v>0.5</v>
       </c>
       <c r="AT6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AU6">
         <v>0.05</v>
@@ -5964,7 +5954,7 @@
         <v>0.5</v>
       </c>
       <c r="AW6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AX6">
         <v>0.05</v>
@@ -5973,7 +5963,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA6">
         <v>0.05</v>
@@ -5984,10 +5974,10 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7">
         <v>0.05</v>
@@ -6110,7 +6100,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="AQ7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR7">
         <v>0.05</v>
@@ -6119,7 +6109,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AU7">
         <v>0.05</v>
@@ -6128,7 +6118,7 @@
         <v>0.5</v>
       </c>
       <c r="AW7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AX7">
         <v>0.05</v>
@@ -6137,7 +6127,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="BA7">
         <v>0.05</v>
@@ -6164,13 +6154,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6400,19 +6390,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -6434,19 +6424,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
